--- a/aggregate_info/aggregate_info_3.xlsx
+++ b/aggregate_info/aggregate_info_3.xlsx
@@ -668,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,6 +893,4866 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ThIS holidays — Каникулы с ITMO.STUDENTS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30 Марта - 05 Апреля</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Менеджер проекта</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ИТМО.ПАНЧЛАЙН</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30 Апреля</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Quizter</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29 Сентября - 02 Декабря</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Взаимодействие с аудиторией</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Культурный квест</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29 Сентября</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Финал первого раунда битвы мегафакультетов «ITMO.Megabattle»</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29 Ноября</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Велопрогулка с ректором 10.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29 Мая</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hult Prize 2021 Saint Petersburg Impact Summit</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29 Апреля - 30 Апреля</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Финальный концерт &amp;quot;Мистер и Мисс ИТМО 2022&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29 Апреля - 30 Апреля</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Отборочный этап конкурса &amp;quot;Мистер и Мисс ИТМО&amp;quot; 2019</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28 Января - 07 Февраля</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Кастинг</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Посвящение в студенты факультета ИКТ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28 Сентября</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Посвящение</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Форт ИТМО</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28 Апреля</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Мистер и Мисс ИТМО 2022</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27 Января - 30 Апреля</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Отборочный этап конкурса &amp;quot;Мистер и Мисс ИТМО&amp;quot; 2022</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27 Января - 06 Февраля</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Кастинг</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Финал 2 раунда ITMO.Megabattle 2022</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27 Мая</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Гала-концерт</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Выезд МЕГАфакультета БТиНС в УСОЦ &amp;quot;Ягодное&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27 Марта - 28 Марта</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Online-лагерь для руководителей и членов клубов</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27 Июля - 29 Июля</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ISolation</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27 Апреля - 10 Мая</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Выставка</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Квиз в рамках 2 раунда &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27 Апреля</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Раунд 2 (2022)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26 Февраля - 31 Мая</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Благотворительная ярмарка в поддержку фонда Доброделы «День Добра»</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26 Сентября</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Волонтер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>День открытых дверей Университета ИТМО для поступающих в бакалавриат</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25 Ноября</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Слет актива ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25 Мая - 26 Мая</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Слет</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Чемпионат Университета ИТМО по киберспорту. Minecraft.Весна (Kronbars Games)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25 Апреля</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Полуфинал Кубка Ректора ПГУПС</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25 Апреля</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Хэллоуин МФ БТинС</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>24 Октября</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Вводная встреча секции автомногоборья Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24 Ноября</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Финал 2 раунда &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24 Мая</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ITMO Family Day mini 2023</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>24 Марта</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Праздник</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ЁЛКА х ИТМО</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>24 Декабря</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Праздник</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>БОЛЬШОЙ КУБОК ПАНЧЛАЙНА</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24 Апреля - 29 Апреля</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Заседание Рабочей группы по студенческому спорту Комитета по физической культуре и спорту Государственной Думы РФ</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23 Сентября</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Заседание</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>новогодний музыкальный марафон soundscape</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23 Декабря</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Лекция</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Шоу ASK.ITMO.WEEK 2.0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22 Января - 14 Июня</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Интервью</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>INSTAКВЕСТ &amp;quot;Дорога в Высшую Лигу&amp;quot; от Лиги КВН POINT</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22 Мая - 23 Мая</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>День рождения Университета ИТМО (121 год)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>22 Марта - 26 Марта</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Юбилеи</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Межфакультетская игра КВН 2019</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>22 Апреля</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1/2 финала Открытой Лиги КВН Университета ИТМО POINT 2020</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21 Ноября</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Фестиваль актуального научного кино (ФАНК)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20 Ноября - 21 Ноября</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ITMO.MUSICAL «Последний заказ»</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20 Мая</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>День рождения Университета ИТМО (123 года)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>20 Марта - 24 Марта</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Юбилеи</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Хакатон be ITMO: цифровой профиль счастья</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20 Июня - 24 Июня</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Хакатон</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Интеллектуальный этап Мистера и Мисс ИТМО 2022</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20 Апреля</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ежегодная районная профилактическая молодежная акция «ЗдорОво жить - здорово»</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>19 Сентября</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Акция</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>районный</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Конкурс «Лучший выпускник Университета ИТМО 2023 года»</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19 Мая - 08 Июля</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Финал Открытой Лиги КВН POINT Университета ИТМО 2020</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>19 Декабря</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ИТМО.ПАНЧЛАЙН 1/2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>18 Марта - 19 Марта</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Финал 1 раунда ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>18 Декабря</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Гала-концерт</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ИТМО.Панчлайн Фрешмены</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>17 Октября - 21 Октября</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Куратор студентов, Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Официальный TikTok аккаунт @itmoru</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17 Ноября - 31 Декабря</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>День открытых дверей мегафакультета биотехнологий и низкотемпературных систем</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>17 Ноября</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Конкурс инициатив и проектов ITMO.FUTURE 2.0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17 Марта - 10 Декабря</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Открытие факультета энергетики и экотехнологий</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>17 Декабря</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Вечер</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Научный стендап «Квантовый потанцевал»</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>17 Апреля</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Форт ИТМО XIII. Украсть башню</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>17 Апреля</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Онлайн-марафон знакомства с университетом — ITMO_Enter:online</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>17 Августа - 30 Августа</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Программа развития надпредметных компетенций «StudentsUP.Club»</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16 Сентября - 19 Сентября</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Курс</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Конференция обучающихся Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>16 Октября</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Семинар «Актуальные проблемы и стратегии развития GreenTech»</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16 Ноября</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Семинар</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Конкурс «Лучший выпускник Университета ИТМО 2022 года»</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>16 Мая - 02 Июля</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ФИНАЛ ИТМО И ПАНЧЛАЙНА</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>16 Декабря</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ITMO_ENTER: online</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>16 Августа - 30 Августа</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Марафон</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Создание и продвижение бренда GreenTech</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>15 Октября - 20 Января</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Проект &amp;quot;ITMO.STEP&amp;quot;. Осень 2018</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15 Октября - 19 Ноября</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>региональный</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Школа добровольцев Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>15 Октября - 02 Ноября</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>IX Конгресс молодых ученых</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>15 Апреля - 18 Апреля</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Конгресс</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Конкурс «Студент года» в системе высшего образования Санкт-Петербурга в 2021 году</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>15 Августа - 24 Ноября</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Х Конгресс молодых ученых</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>14 Апреля - 17 Апреля</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Лекция</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Конкурс грантов ITMO.STUDENTS весна 2022</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>14 Апреля - 13 Мая</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Лига Университета ИТМО по мини-футболу (2 круг)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>13 Февраля - 28 Марта</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Проект &amp;quot;Интернет бактерий&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>13 Октября - 23 Октября</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Фестиваль &amp;quot;Друг к другу&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>13 Ноября - 14 Ноября</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>13 Марта - 30 Мая</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>КУБОК ФРЕШМЕНОВ</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>13 Марта - 18 Марта</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Фестиваль образовательных игр Gamechangers 2021</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>13 Марта - 14 Апреля</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Спортивный этап Мистера и Мисс ИТМО 2022</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>13 Апреля</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Летник ИТМО.Панчлайна</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>13 Августа - 19 Августа</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Выездной лагерь МФ БТиНС в рамках &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>12 Октября - 13 Октября</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Финал конкурса «Мистер и Мисс ИТМО. The First Step»</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>12 Апреля</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Финал</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Шоу &amp;quot;Мистер и Мисс ИТМО 2019&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12 Апреля</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11 Сентября - 18 Декабря</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Раунд 1 (2021)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>11 Сентября - 12 Декабря</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Выезд в рамках Обучающей школы проекта &amp;quot;Адаптер Университета ИТМО&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11 Мая - 12 Мая</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Деловая игра</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Цифровой выпускной в Университете ИТМО «ИТМО.Live-2020»</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11 Июля</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Торжества</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Волонтер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Викторина IS дома</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>11 Апреля - 30 Апреля</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Мистер и Мисс ИТМО 2019</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>10 Февраля - 12 Апреля</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1/4 финала Открытой Лиги КВН Университета ИТМО POINT 2020</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>10 Октября</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>В Питере - учиться!</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>10 Марта</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Лекция</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ИТМО.ПАНЧЛАЙН ФИНАЛ</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>10 Декабря</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sweet Dreams Show</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10 Апреля - 20 Мая</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Выезд мегафакультета биотехнологий и низкотемпературных систем и мегафакультета наук о жизни в УСОЦ «Ягодное» в рамках проекта ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>09 Октября - 10 Октября</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>#НыряемвРеки</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>09 Декабря - 29 Декабря</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Марафон</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Викторина IS совместно с GreenTech.Students</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>09 Декабря</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Марафон ITMO.levelUP 2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>08 Марта - 05 Апреля</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Марафон</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ITMO.LiVE 2023</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>08 Июля</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Праздник</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Установочная лекция секции Автоспорта ИТМО</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>08 Декабря</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Лекция</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Шоу &amp;quot;503&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>07 Февраля - 01 Апреля</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Лекция</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ASK.ITMO WEEK</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>07 Октября - 22 Января</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Интервью</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Полуфинал ИТМО.Панчлайн V</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>07 Ноября - 12 Ноября</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Лига Университета ИТМО по мини-футболу</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>07 Ноября - 12 Декабря</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Творческий мастер-класс для «Центра социальной помощи семье и детям Василеостровского района&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>07 Июля</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Акция</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Финал открытой лиги КВН POINT</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>07 Декабря</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Деятельность клуба ИТМО.Панчлайн</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>06 Сентября - 31 Августа</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Совещание</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Выездной лагерь МФБТиНС в рамках &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>06 Октября - 07 Октября</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Всероссийский форум студенческих спортивных клубов</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>06 Ноября - 11 Ноября</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Форум</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ИТМО.ПАНЧЛАЙН</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>06 Ноября</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Онлайн-фестиваль Лиги КВН POINT</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>06 Апреля - 30 Апреля</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Онлайн-марафон ITMO.levelUP</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>06 Апреля - 03 Мая</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Онлайн-курс</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Эмоциональный этап Мистера и Мисс ИТМО 2022</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>06 Апреля</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Начало первого раунда ИТМО.Панчлайн 2021</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>04 Октября - 11 Октября</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Выборы председателя ITMO.STUDENTS - ITMO.Leaders</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>04 Октября - 03 Ноября</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Массовое онлайн мероприятие</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>XI Конгресс молодых ученых 2022 года</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>04 Апреля - 08 Апреля</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Конгресс</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1/4 Кубка Ректора ПГУПС</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>04 Апреля</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Выезд МФ БТинС в УСОЦ &amp;quot;Ягодное&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>03 Октября - 04 Октября</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Пятьдесят первая (LI) научная и учебно-методическая конференция Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>02 Февраля - 05 Февраля</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>INTRODUCTION DAYS</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>02 Сентября - 03 Сентября</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Межфакультетская игра КВН Университета ИТМО (при открытой лиге КВН POINT)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>02 Ноября</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Встреча инициативной группы GreenTech</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>02 Ноября</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Межфакультетская игра КВН Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>02 Ноября</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Освещение культурно-творческих событий Университета ИТМО 2021 год</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>01 Января - 31 Декабря</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Викторина IS</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>01 Сентября - 23 Декабря</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Шоу ASK.ITMO.WEEK</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>01 Сентября - 21 Января</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Интервью</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ITMO_ENTER: Offline</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>01 Сентября - 03 Сентября</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Благотворительный Online фестиваль приютов «Приюти Добро»</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>01 Ноября - 07 Ноября</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Лекция</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Межфакультетская игра Открытой лиги КВН &amp;quot;POINT&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>01 Ноября</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Весенний субботник &amp;quot;Эстрада&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>01 Мая - 03 Мая</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Слет</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Викторина IS</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>01 Марта - 18 Апреля</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Игра</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Раунд 2 (2021)</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>01 Марта - 04 Июня</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle TV-show</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>01 Июня - 07 Июня</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Выезд актива ФТМИ в Ягодное</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>01 Июня - 02 Июня</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Квест «Попади на МКС POINT»</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>01 Июля - 31 Июля</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Новогодние праздники и мастер-классы для детей</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>01 Декабря - 30 Декабря</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Мастер-класс</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Всероссийский форум «Актуальные вопросы развития студенческого спорта» 2021</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>01 Декабря - 04 Декабря</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Форум</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Волонтер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Всероссийский форум &amp;quot;Актуальные вопросы развития студенческого спорта&amp;quot; 2022</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>01 Декабря - 02 Декабря</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Форум</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Открытие зимы в ИТМО 2019</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>01 Декабря</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Публичное массовое зрелище</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>ФИНАЛ ИТМО.ПАНЧЛАЙН IV</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>01 Апреля</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Организатор, Участник</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
